--- a/jupyter_notebooks/file/input/switches_v3/network.xlsx
+++ b/jupyter_notebooks/file/input/switches_v3/network.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FBK106\Documents\Repositories\ResiliencyTool\jupyter_notebooks\file\input\switches_v0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FBK106\Documents\Repositories\ResiliencyTool\jupyter_notebooks\file\input\switches_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E39DB9-F106-4D67-A435-9ECBAC22EED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C37B4B-69D8-4475-BF0A-5EED3C47C13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32025" yWindow="1800" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{D3DCB828-FBC6-4B5F-B916-8216FBF30931}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{D3DCB828-FBC6-4B5F-B916-8216FBF30931}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="12" r:id="rId1"/>
@@ -3201,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,11 +3272,9 @@
         <v>220</v>
       </c>
       <c r="D2">
-        <f>D3+0.5</f>
         <v>81.400000000000006</v>
       </c>
       <c r="E2">
-        <f>E3</f>
         <v>9.5</v>
       </c>
       <c r="G2">
@@ -3287,12 +3285,6 @@
       </c>
       <c r="I2" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -3326,11 +3318,9 @@
         <v>110</v>
       </c>
       <c r="D4">
-        <f>D3-P2</f>
         <v>79.900000000000006</v>
       </c>
       <c r="E4">
-        <f>E3</f>
         <v>9.5</v>
       </c>
       <c r="G4">
@@ -3351,11 +3341,9 @@
         <v>110</v>
       </c>
       <c r="D5">
-        <f>D4</f>
         <v>79.900000000000006</v>
       </c>
       <c r="E5">
-        <f>E4+Q2</f>
         <v>10.5</v>
       </c>
       <c r="G5">
@@ -3376,11 +3364,9 @@
         <v>110</v>
       </c>
       <c r="D6">
-        <f>D5</f>
         <v>79.900000000000006</v>
       </c>
       <c r="E6">
-        <f>E5+Q2</f>
         <v>11.5</v>
       </c>
       <c r="G6">
@@ -3401,11 +3387,9 @@
         <v>110</v>
       </c>
       <c r="D7">
-        <f>D6</f>
         <v>79.900000000000006</v>
       </c>
       <c r="E7">
-        <f>E6+Q2</f>
         <v>12.5</v>
       </c>
       <c r="G7">
@@ -3426,11 +3410,9 @@
         <v>110</v>
       </c>
       <c r="D8">
-        <f>D6-P2</f>
         <v>78.900000000000006</v>
       </c>
       <c r="E8">
-        <f>E6</f>
         <v>11.5</v>
       </c>
       <c r="G8">
@@ -3451,11 +3433,9 @@
         <v>110</v>
       </c>
       <c r="D9">
-        <f>D8-P2</f>
         <v>77.900000000000006</v>
       </c>
       <c r="E9">
-        <f>E8</f>
         <v>11.5</v>
       </c>
       <c r="G9">
@@ -3476,11 +3456,9 @@
         <v>110</v>
       </c>
       <c r="D10">
-        <f>D9-P2</f>
         <v>76.900000000000006</v>
       </c>
       <c r="E10">
-        <f>E9</f>
         <v>11.5</v>
       </c>
       <c r="G10">
@@ -3501,11 +3479,9 @@
         <v>110</v>
       </c>
       <c r="D11">
-        <f>D4-P2</f>
         <v>78.900000000000006</v>
       </c>
       <c r="E11">
-        <f>E4</f>
         <v>9.5</v>
       </c>
       <c r="G11">
@@ -3526,11 +3502,9 @@
         <v>110</v>
       </c>
       <c r="D12">
-        <f>D11</f>
         <v>78.900000000000006</v>
       </c>
       <c r="E12">
-        <f>E11-Q2</f>
         <v>8.5</v>
       </c>
       <c r="G12">
@@ -3551,11 +3525,9 @@
         <v>110</v>
       </c>
       <c r="D13">
-        <f>D11-P2</f>
         <v>77.900000000000006</v>
       </c>
       <c r="E13">
-        <f>E11</f>
         <v>9.5</v>
       </c>
       <c r="G13">
@@ -3576,11 +3548,9 @@
         <v>110</v>
       </c>
       <c r="D14">
-        <f>D13-P2</f>
         <v>76.900000000000006</v>
       </c>
       <c r="E14">
-        <f>E13</f>
         <v>9.5</v>
       </c>
       <c r="G14">
@@ -3601,11 +3571,9 @@
         <v>110</v>
       </c>
       <c r="D15">
-        <f>D14</f>
         <v>76.900000000000006</v>
       </c>
       <c r="E15">
-        <f>E14-Q2</f>
         <v>8.5</v>
       </c>
       <c r="G15">
@@ -3626,11 +3594,9 @@
         <v>110</v>
       </c>
       <c r="D16">
-        <f>D14-P2</f>
         <v>75.900000000000006</v>
       </c>
       <c r="E16">
-        <f>E14</f>
         <v>9.5</v>
       </c>
       <c r="G16">
@@ -3651,11 +3617,9 @@
         <v>110</v>
       </c>
       <c r="D17">
-        <f>D16</f>
         <v>75.900000000000006</v>
       </c>
       <c r="E17">
-        <f>E16-Q2</f>
         <v>8.5</v>
       </c>
       <c r="G17">
@@ -3676,11 +3640,9 @@
         <v>110</v>
       </c>
       <c r="D18">
-        <f>D16-P2</f>
         <v>74.900000000000006</v>
       </c>
       <c r="E18">
-        <f>E16</f>
         <v>9.5</v>
       </c>
       <c r="G18">
@@ -3701,11 +3663,9 @@
         <v>110</v>
       </c>
       <c r="D19">
-        <f>D9</f>
         <v>77.900000000000006</v>
       </c>
       <c r="E19">
-        <f>E9+Q2</f>
         <v>12.5</v>
       </c>
       <c r="G19">
@@ -3726,11 +3686,9 @@
         <v>110</v>
       </c>
       <c r="D20">
-        <f>D17-P2</f>
         <v>74.900000000000006</v>
       </c>
       <c r="E20">
-        <f>E17</f>
         <v>8.5</v>
       </c>
       <c r="G20">
@@ -3754,7 +3712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2B7A3-5BF0-4668-9FF0-C3329253032F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>

--- a/jupyter_notebooks/file/input/switches_v3/network.xlsx
+++ b/jupyter_notebooks/file/input/switches_v3/network.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FBK106\Documents\Repositories\ResiliencyTool\jupyter_notebooks\file\input\switches_v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/mn6461_engie_com/Documents/Dokumente/GitHub/reXplan-repo/jupyter_notebooks/file/input/switches_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C37B4B-69D8-4475-BF0A-5EED3C47C13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{49C37B4B-69D8-4475-BF0A-5EED3C47C13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{686E78A8-23E6-4A9C-BB76-DB41DBDACFC3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{D3DCB828-FBC6-4B5F-B916-8216FBF30931}"/>
+    <workbookView xWindow="-25320" yWindow="-8805" windowWidth="25440" windowHeight="15270" firstSheet="1" activeTab="3" xr2:uid="{D3DCB828-FBC6-4B5F-B916-8216FBF30931}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="12" r:id="rId1"/>
     <sheet name="network" sheetId="5" r:id="rId2"/>
     <sheet name="nodes" sheetId="1" r:id="rId3"/>
-    <sheet name="lines" sheetId="4" r:id="rId4"/>
-    <sheet name="switches" sheetId="14" r:id="rId5"/>
-    <sheet name="loads" sheetId="8" r:id="rId6"/>
-    <sheet name="generators" sheetId="2" r:id="rId7"/>
-    <sheet name="external_gen" sheetId="9" r:id="rId8"/>
-    <sheet name="tr_type" sheetId="6" r:id="rId9"/>
-    <sheet name="transformers" sheetId="3" r:id="rId10"/>
-    <sheet name="ln_type" sheetId="7" r:id="rId11"/>
-    <sheet name="cost" sheetId="10" r:id="rId12"/>
-    <sheet name="profiles" sheetId="11" r:id="rId13"/>
-    <sheet name="crews" sheetId="13" r:id="rId14"/>
+    <sheet name="static_generators" sheetId="15" r:id="rId4"/>
+    <sheet name="lines" sheetId="4" r:id="rId5"/>
+    <sheet name="switches" sheetId="14" r:id="rId6"/>
+    <sheet name="loads" sheetId="8" r:id="rId7"/>
+    <sheet name="generators" sheetId="2" r:id="rId8"/>
+    <sheet name="external_gen" sheetId="9" r:id="rId9"/>
+    <sheet name="tr_type" sheetId="6" r:id="rId10"/>
+    <sheet name="transformers" sheetId="3" r:id="rId11"/>
+    <sheet name="ln_type" sheetId="7" r:id="rId12"/>
+    <sheet name="cost" sheetId="10" r:id="rId13"/>
+    <sheet name="profiles" sheetId="11" r:id="rId14"/>
+    <sheet name="crews" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -673,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -683,10 +684,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -968,15 +968,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>146</v>
       </c>
@@ -987,7 +987,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>44562.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -1042,75 +1042,129 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FE2EA6-5FEC-471F-BC99-9A1BBFAA5478}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD17E09-C6E9-4EE3-B588-F4BAB32A1513}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>105</v>
+      <c r="B2">
+        <v>220</v>
+      </c>
+      <c r="C2">
+        <v>110</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>0.26</v>
+      </c>
+      <c r="G2">
+        <v>55</v>
+      </c>
+      <c r="H2">
+        <v>0.06</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>-9</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <v>1.5</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1119,78 +1173,75 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B643028-F04F-4526-8B5B-4E99E7FCEC09}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FE2EA6-5FEC-471F-BC99-9A1BBFAA5478}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="C2">
-        <v>0.41</v>
-      </c>
-      <c r="D2">
-        <v>8.75</v>
-      </c>
-      <c r="H2">
-        <v>0.47</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1199,24 +1250,104 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B643028-F04F-4526-8B5B-4E99E7FCEC09}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.41</v>
+      </c>
+      <c r="D2">
+        <v>8.75</v>
+      </c>
+      <c r="H2">
+        <v>0.47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03625BB4-D62C-4FF6-AAD9-1E9790CBA541}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1373,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1256,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1270,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1284,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -1298,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -1312,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -1326,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -1340,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1354,7 +1485,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1368,7 +1499,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1382,7 +1513,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -1396,7 +1527,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -1410,7 +1541,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1424,7 +1555,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -1438,7 +1569,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -1458,7 +1589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF69C053-E8BE-41F5-B9A4-E34E9036274A}">
   <dimension ref="A1:J50"/>
   <sheetViews>
@@ -1466,14 +1597,14 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="12" customWidth="1"/>
-    <col min="10" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -1505,7 +1636,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -1537,7 +1668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>DATE(2022,1,1)+TIME(0,0,0)</f>
         <v>44562</v>
@@ -1570,7 +1701,7 @@
         <v>19.934894485517049</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f>A3+TIME(1,0,0)</f>
         <v>44562.041666666664</v>
@@ -1603,7 +1734,7 @@
         <v>23.308727319461724</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A50" si="0">A4+TIME(1,0,0)</f>
         <v>44562.083333333328</v>
@@ -1636,7 +1767,7 @@
         <v>17.474943310487475</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>44562.124999999993</v>
@@ -1669,7 +1800,7 @@
         <v>15.424210251501449</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>44562.166666666657</v>
@@ -1702,7 +1833,7 @@
         <v>13.129585685334924</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>44562.208333333321</v>
@@ -1735,7 +1866,7 @@
         <v>21.605120970748523</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>44562.249999999985</v>
@@ -1768,7 +1899,7 @@
         <v>15.049400673234874</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>44562.29166666665</v>
@@ -1801,7 +1932,7 @@
         <v>15.882207877115526</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>44562.333333333314</v>
@@ -1834,7 +1965,7 @@
         <v>17.353116948353374</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>44562.374999999978</v>
@@ -1867,7 +1998,7 @@
         <v>19.733441000213475</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>44562.416666666642</v>
@@ -1900,7 +2031,7 @@
         <v>11.638532965343124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>44562.458333333307</v>
@@ -1933,7 +2064,7 @@
         <v>22.194872517460176</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>44562.499999999971</v>
@@ -1966,7 +2097,7 @@
         <v>4.5310178812890678</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>44562.541666666635</v>
@@ -1999,7 +2130,7 @@
         <v>11.242507011693474</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>44562.583333333299</v>
@@ -2032,7 +2163,7 @@
         <v>14.748263744983225</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>44562.624999999964</v>
@@ -2065,7 +2196,7 @@
         <v>22.813796021891275</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>44562.666666666628</v>
@@ -2098,7 +2229,7 @@
         <v>16.953457419080074</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>44562.708333333292</v>
@@ -2131,7 +2262,7 @@
         <v>4.1637255327531282</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>44562.749999999956</v>
@@ -2164,7 +2295,7 @@
         <v>17.949039470568223</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>44562.791666666621</v>
@@ -2197,7 +2328,7 @@
         <v>4.1869132005201086</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>44562.833333333285</v>
@@ -2230,7 +2361,7 @@
         <v>29.493936915211602</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>44562.874999999949</v>
@@ -2263,7 +2394,7 @@
         <v>18.388638835419776</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>44562.916666666613</v>
@@ -2296,7 +2427,7 @@
         <v>13.7261820081086</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>44562.958333333278</v>
@@ -2329,7 +2460,7 @@
         <v>17.586398107617278</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>44562.999999999942</v>
@@ -2362,7 +2493,7 @@
         <v>11.49931354553855</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>44563.041666666606</v>
@@ -2395,7 +2526,7 @@
         <v>22.647110025550674</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>44563.08333333327</v>
@@ -2428,7 +2559,7 @@
         <v>7.4130677135893501</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>44563.124999999935</v>
@@ -2461,7 +2592,7 @@
         <v>17.489085175952276</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>44563.166666666599</v>
@@ -2494,7 +2625,7 @@
         <v>21.517920423466951</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>44563.208333333263</v>
@@ -2527,7 +2658,7 @@
         <v>12.393034162390125</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>44563.249999999927</v>
@@ -2560,7 +2691,7 @@
         <v>10.019924684746254</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>44563.291666666591</v>
@@ -2593,7 +2724,7 @@
         <v>25.006584262143477</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>44563.333333333256</v>
@@ -2626,7 +2757,7 @@
         <v>21.925634063601073</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>44563.37499999992</v>
@@ -2659,7 +2790,7 @@
         <v>14.208750570977301</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>44563.416666666584</v>
@@ -2692,7 +2823,7 @@
         <v>29.827116139559575</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>44563.458333333248</v>
@@ -2725,7 +2856,7 @@
         <v>22.553314388050197</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>44563.499999999913</v>
@@ -2758,7 +2889,7 @@
         <v>12.735776579379834</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>44563.541666666577</v>
@@ -2791,7 +2922,7 @@
         <v>13.285828600959924</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>44563.583333333241</v>
@@ -2824,7 +2955,7 @@
         <v>13.300729578010376</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>44563.624999999905</v>
@@ -2857,7 +2988,7 @@
         <v>26.295067749104504</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>44563.66666666657</v>
@@ -2890,7 +3021,7 @@
         <v>22.847309825630326</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>44563.708333333234</v>
@@ -2923,7 +3054,7 @@
         <v>17.792331483055751</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44563.749999999898</v>
@@ -2956,7 +3087,7 @@
         <v>15.68739580992785</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>44563.791666666562</v>
@@ -2989,7 +3120,7 @@
         <v>2.6307975795397875</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>44563.833333333227</v>
@@ -3022,7 +3153,7 @@
         <v>6.4264870106351673</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>44563.874999999891</v>
@@ -3055,7 +3186,7 @@
         <v>17.454674410976001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>44563.916666666555</v>
@@ -3088,7 +3219,7 @@
         <v>22.015293099134826</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>44563.958333333219</v>
@@ -3128,33 +3259,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA625533-3B9A-44F8-8593-9BC4C933B1AA}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -3171,9 +3302,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3184,7 +3315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -3201,23 +3332,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3264,7 +3395,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3287,7 +3418,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3310,7 +3441,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3333,7 +3464,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3356,7 +3487,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -3379,7 +3510,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -3402,7 +3533,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -3425,7 +3556,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -3448,7 +3579,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -3471,7 +3602,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -3494,7 +3625,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -3517,7 +3648,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -3540,7 +3671,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -3563,7 +3694,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -3586,7 +3717,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -3609,7 +3740,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -3632,7 +3763,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -3655,7 +3786,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -3678,7 +3809,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -3709,6 +3840,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ADA90D-3204-47D5-9612-2D20D5333C39}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2B7A3-5BF0-4668-9FF0-C3329253032F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
@@ -3716,29 +3859,29 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3791,7 +3934,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -3821,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -3851,7 +3994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -3881,7 +4024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -3911,7 +4054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -3941,7 +4084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -3971,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -4001,7 +4144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -4031,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -4061,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -4091,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -4121,7 +4264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -4151,7 +4294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -4183,7 +4326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -4215,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -4245,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -4275,7 +4418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>180</v>
       </c>
@@ -4305,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>187</v>
       </c>
@@ -4342,7 +4485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B254C9-296C-496E-B9D1-44F56B1564BD}">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -4350,15 +4493,15 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4387,7 +4530,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -4400,13 +4543,12 @@
       <c r="D2" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="7"/>
       <c r="G2" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -4419,7 +4561,6 @@
       <c r="D3" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="7"/>
       <c r="G3" s="2" t="s">
         <v>105</v>
       </c>
@@ -4428,7 +4569,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>170</v>
       </c>
@@ -4441,13 +4582,12 @@
       <c r="D4" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="7"/>
       <c r="G4" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -4460,14 +4600,13 @@
       <c r="D5" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="7"/>
       <c r="G5" s="2" t="s">
         <v>184</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>190</v>
       </c>
@@ -4480,7 +4619,6 @@
       <c r="D6" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="7"/>
       <c r="G6" s="2" t="s">
         <v>105</v>
       </c>
@@ -4489,7 +4627,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -4502,7 +4640,6 @@
       <c r="D7" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="7"/>
       <c r="G7" s="2" t="s">
         <v>105</v>
       </c>
@@ -4511,7 +4648,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>175</v>
       </c>
@@ -4524,7 +4661,6 @@
       <c r="D8" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="7"/>
       <c r="G8" s="2" t="s">
         <v>105</v>
       </c>
@@ -4533,7 +4669,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -4546,7 +4682,6 @@
       <c r="D9" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="7"/>
       <c r="G9" s="2" t="s">
         <v>105</v>
       </c>
@@ -4555,7 +4690,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -4568,7 +4703,6 @@
       <c r="D10" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="7"/>
       <c r="G10" s="2" t="s">
         <v>105</v>
       </c>
@@ -4577,7 +4711,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -4605,7 +4739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C68F50D-BD38-47D8-9610-A2EF7C397A58}">
   <dimension ref="A1:R10"/>
   <sheetViews>
@@ -4613,27 +4747,27 @@
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4689,7 +4823,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4719,7 +4853,7 @@
       </c>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4749,7 +4883,7 @@
       </c>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4779,7 +4913,7 @@
       </c>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -4809,7 +4943,7 @@
       </c>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -4839,7 +4973,7 @@
       </c>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -4869,7 +5003,7 @@
       </c>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -4899,7 +5033,7 @@
       </c>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -4929,7 +5063,7 @@
       </c>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -4964,7 +5098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB5B7B5-BF13-4654-A134-6B30DC3D029F}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
@@ -4972,34 +5106,34 @@
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5082,7 +5216,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -5113,7 +5247,7 @@
       </c>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -5144,7 +5278,7 @@
       </c>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -5175,7 +5309,7 @@
       </c>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -5206,7 +5340,7 @@
       </c>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -5237,7 +5371,7 @@
       </c>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -5268,117 +5402,9 @@
       </c>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="M8" s="2"/>
       <c r="V8" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06392EB3-C4FB-4DF3-BD7E-3D0934814FDF}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1000</v>
-      </c>
-      <c r="J2">
-        <v>-1000</v>
-      </c>
-      <c r="K2">
-        <v>1000</v>
-      </c>
-      <c r="L2">
-        <v>-1000</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5386,129 +5412,106 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD17E09-C6E9-4EE3-B588-F4BAB32A1513}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06392EB3-C4FB-4DF3-BD7E-3D0934814FDF}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="O1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>220</v>
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>110</v>
-      </c>
-      <c r="D2">
-        <v>500</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>0.26</v>
-      </c>
-      <c r="G2">
-        <v>55</v>
-      </c>
-      <c r="H2">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>56</v>
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>-1000</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L2">
-        <v>-9</v>
-      </c>
-      <c r="M2">
-        <v>9</v>
-      </c>
-      <c r="N2">
-        <v>1.5</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
   </sheetData>
